--- a/InputData/bldgs/FoBObE/Frac of Bldgs Owned by Entity.xlsx
+++ b/InputData/bldgs/FoBObE/Frac of Bldgs Owned by Entity.xlsx
@@ -1,37 +1,48 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipI\InputData\bldgs\FoBObE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeRepositories\eps-us\InputData\bldgs\FoBObE\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC5D1B2A-0F82-4946-A7E8-65637F63812F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="23955" windowHeight="12840"/>
+    <workbookView xWindow="16455" yWindow="150" windowWidth="29520" windowHeight="21060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="Residential" sheetId="2" r:id="rId2"/>
     <sheet name="Commercial" sheetId="3" r:id="rId3"/>
-    <sheet name="Output by Industry" sheetId="5" r:id="rId4"/>
-    <sheet name="FoBObE" sheetId="4" r:id="rId5"/>
+    <sheet name="FoBObE" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="outputfrac_bio">'Output by Industry'!$A$9</definedName>
-    <definedName name="outputfrac_coal">'Output by Industry'!$A$7</definedName>
-    <definedName name="outputfrac_elec">'Output by Industry'!$A$6</definedName>
-    <definedName name="outputfrac_ngps">'Output by Industry'!$A$8</definedName>
-    <definedName name="outputfrac_nonenergy">'Output by Industry'!$A$5</definedName>
-    <definedName name="outputfrac_other">'Output by Industry'!$A$10</definedName>
+    <definedName name="outputfrac_bio">#REF!</definedName>
+    <definedName name="outputfrac_coal">#REF!</definedName>
+    <definedName name="outputfrac_elec">#REF!</definedName>
+    <definedName name="outputfrac_ngps">#REF!</definedName>
+    <definedName name="outputfrac_nonenergy">#REF!</definedName>
+    <definedName name="outputfrac_other">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="67">
   <si>
     <t>Sources:</t>
   </si>
@@ -213,60 +224,12 @@
     <t>foreign entities</t>
   </si>
   <si>
-    <t>nonenergy industries</t>
-  </si>
-  <si>
     <t>labor and consumers</t>
   </si>
   <si>
-    <t>electricity suppliers</t>
-  </si>
-  <si>
-    <t>coal suppliers</t>
-  </si>
-  <si>
-    <t>natural gas and petroleum suppliers</t>
-  </si>
-  <si>
-    <t>biomass and biofuel suppliers</t>
-  </si>
-  <si>
-    <t>other energy suppliers</t>
-  </si>
-  <si>
-    <t>For bibliographic source and methods, see file output_shares_by_industry.xslx</t>
-  </si>
-  <si>
-    <t>in the InputData folder.</t>
-  </si>
-  <si>
-    <t>Share</t>
-  </si>
-  <si>
-    <t>Industry Category</t>
-  </si>
-  <si>
-    <t>non-energy industries</t>
-  </si>
-  <si>
     <t>Notes</t>
   </si>
   <si>
-    <t>For commercial buildings, we divde between "nonenergy industries" and</t>
-  </si>
-  <si>
-    <t>the various energy industries based on output shares of GDP.  (We assume</t>
-  </si>
-  <si>
-    <t>that all residential buildings owned by industry are owned by "nonenergy</t>
-  </si>
-  <si>
-    <t>industries" - i.e. rental property management communities, nursing homes,</t>
-  </si>
-  <si>
-    <t>etc. - not energy industries.</t>
-  </si>
-  <si>
     <t>In the output tab, we show more decimal places than the source data</t>
   </si>
   <si>
@@ -276,24 +239,23 @@
     <t>provide in order to avoid rounding error in Vensim (each column must</t>
   </si>
   <si>
-    <t>Fraction of buildings owned by cash flow entity is used in cash flow calculations.</t>
-  </si>
-  <si>
     <t>Ownership by Cash Flow Entity (dimensionless)</t>
+  </si>
+  <si>
+    <t>domestic industries</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
-    <numFmt numFmtId="166" formatCode="0.0000"/>
     <numFmt numFmtId="167" formatCode="0.00000000"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -356,6 +318,14 @@
       <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -541,7 +511,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -648,7 +618,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -685,8 +654,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -785,6 +753,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -820,6 +805,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -995,12 +997,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1077,60 +1077,30 @@
         <v>7</v>
       </c>
     </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>72</v>
+      <c r="A18" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="71" t="s">
-        <v>81</v>
+      <c r="A19" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B14" r:id="rId1"/>
-    <hyperlink ref="B7" r:id="rId2"/>
+    <hyperlink ref="B14" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B7" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
@@ -1138,7 +1108,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1158,20 +1128,20 @@
       <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="63" t="s">
+      <c r="B3" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="63"/>
-      <c r="M3" s="63"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
       <c r="N3" s="6"/>
       <c r="O3" s="6"/>
       <c r="P3" s="6"/>
@@ -1199,60 +1169,60 @@
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
       <c r="B5" s="9"/>
-      <c r="C5" s="64" t="s">
+      <c r="C5" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
       <c r="F5" s="9"/>
-      <c r="G5" s="64" t="s">
+      <c r="G5" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="64"/>
-      <c r="I5" s="64"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
       <c r="J5" s="9"/>
-      <c r="K5" s="64" t="s">
+      <c r="K5" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="64"/>
-      <c r="M5" s="64"/>
+      <c r="L5" s="63"/>
+      <c r="M5" s="63"/>
       <c r="N5" s="9"/>
-      <c r="O5" s="65" t="s">
+      <c r="O5" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="P5" s="65"/>
-      <c r="Q5" s="66"/>
+      <c r="P5" s="64"/>
+      <c r="Q5" s="65"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="9"/>
-      <c r="C6" s="67" t="s">
+      <c r="C6" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
       <c r="F6" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="67" t="s">
+      <c r="G6" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="67"/>
-      <c r="I6" s="67"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="66"/>
       <c r="J6" s="13"/>
-      <c r="K6" s="67" t="s">
+      <c r="K6" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="L6" s="67"/>
-      <c r="M6" s="67"/>
+      <c r="L6" s="66"/>
+      <c r="M6" s="66"/>
       <c r="N6" s="14"/>
-      <c r="O6" s="67" t="s">
+      <c r="O6" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="P6" s="67"/>
-      <c r="Q6" s="68"/>
+      <c r="P6" s="66"/>
+      <c r="Q6" s="67"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
@@ -1414,85 +1384,85 @@
       <c r="A13" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="59" t="s">
+      <c r="B13" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="59"/>
-      <c r="D13" s="59"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="59"/>
-      <c r="K13" s="59"/>
-      <c r="L13" s="59"/>
-      <c r="M13" s="59"/>
-      <c r="N13" s="59"/>
-      <c r="O13" s="59"/>
-      <c r="P13" s="59"/>
-      <c r="Q13" s="60"/>
+      <c r="C13" s="58"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="58"/>
+      <c r="J13" s="58"/>
+      <c r="K13" s="58"/>
+      <c r="L13" s="58"/>
+      <c r="M13" s="58"/>
+      <c r="N13" s="58"/>
+      <c r="O13" s="58"/>
+      <c r="P13" s="58"/>
+      <c r="Q13" s="59"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="23"/>
-      <c r="B14" s="59"/>
-      <c r="C14" s="59"/>
-      <c r="D14" s="59"/>
-      <c r="E14" s="59"/>
-      <c r="F14" s="59"/>
-      <c r="G14" s="59"/>
-      <c r="H14" s="59"/>
-      <c r="I14" s="59"/>
-      <c r="J14" s="59"/>
-      <c r="K14" s="59"/>
-      <c r="L14" s="59"/>
-      <c r="M14" s="59"/>
-      <c r="N14" s="59"/>
-      <c r="O14" s="59"/>
-      <c r="P14" s="59"/>
-      <c r="Q14" s="60"/>
+      <c r="B14" s="58"/>
+      <c r="C14" s="58"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="58"/>
+      <c r="G14" s="58"/>
+      <c r="H14" s="58"/>
+      <c r="I14" s="58"/>
+      <c r="J14" s="58"/>
+      <c r="K14" s="58"/>
+      <c r="L14" s="58"/>
+      <c r="M14" s="58"/>
+      <c r="N14" s="58"/>
+      <c r="O14" s="58"/>
+      <c r="P14" s="58"/>
+      <c r="Q14" s="59"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="23"/>
-      <c r="B15" s="59"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="59"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="59"/>
-      <c r="K15" s="59"/>
-      <c r="L15" s="59"/>
-      <c r="M15" s="59"/>
-      <c r="N15" s="59"/>
-      <c r="O15" s="59"/>
-      <c r="P15" s="59"/>
-      <c r="Q15" s="60"/>
+      <c r="B15" s="58"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="58"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="58"/>
+      <c r="I15" s="58"/>
+      <c r="J15" s="58"/>
+      <c r="K15" s="58"/>
+      <c r="L15" s="58"/>
+      <c r="M15" s="58"/>
+      <c r="N15" s="58"/>
+      <c r="O15" s="58"/>
+      <c r="P15" s="58"/>
+      <c r="Q15" s="59"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="61" t="s">
+      <c r="B16" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="61"/>
-      <c r="D16" s="61"/>
-      <c r="E16" s="61"/>
-      <c r="F16" s="61"/>
-      <c r="G16" s="61"/>
-      <c r="H16" s="61"/>
-      <c r="I16" s="61"/>
-      <c r="J16" s="61"/>
-      <c r="K16" s="61"/>
-      <c r="L16" s="61"/>
-      <c r="M16" s="61"/>
-      <c r="N16" s="61"/>
-      <c r="O16" s="61"/>
-      <c r="P16" s="61"/>
-      <c r="Q16" s="62"/>
+      <c r="C16" s="60"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="60"/>
+      <c r="L16" s="60"/>
+      <c r="M16" s="60"/>
+      <c r="N16" s="60"/>
+      <c r="O16" s="60"/>
+      <c r="P16" s="60"/>
+      <c r="Q16" s="61"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -1638,7 +1608,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1973,24 +1943,24 @@
       <c r="A16" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="69" t="s">
+      <c r="B16" s="68" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="69"/>
-      <c r="D16" s="69"/>
-      <c r="E16" s="69"/>
-      <c r="F16" s="69"/>
-      <c r="G16" s="69"/>
-      <c r="H16" s="69"/>
-      <c r="I16" s="69"/>
-      <c r="J16" s="69"/>
-      <c r="K16" s="69"/>
-      <c r="L16" s="69"/>
-      <c r="M16" s="69"/>
-      <c r="N16" s="69"/>
-      <c r="O16" s="69"/>
-      <c r="P16" s="69"/>
-      <c r="Q16" s="70"/>
+      <c r="C16" s="68"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="68"/>
+      <c r="F16" s="68"/>
+      <c r="G16" s="68"/>
+      <c r="H16" s="68"/>
+      <c r="I16" s="68"/>
+      <c r="J16" s="68"/>
+      <c r="K16" s="68"/>
+      <c r="L16" s="68"/>
+      <c r="M16" s="68"/>
+      <c r="N16" s="68"/>
+      <c r="O16" s="68"/>
+      <c r="P16" s="68"/>
+      <c r="Q16" s="69"/>
     </row>
     <row r="18" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
@@ -2036,94 +2006,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="36" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="56">
-        <v>0.93219819361870848</v>
-      </c>
-      <c r="B5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="56">
-        <v>1.5490855293616566E-2</v>
-      </c>
-      <c r="B6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="56">
-        <v>2.1866536828369144E-3</v>
-      </c>
-      <c r="B7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="56">
-        <v>4.9443136381930888E-2</v>
-      </c>
-      <c r="B8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="56">
-        <v>6.8116102290716575E-4</v>
-      </c>
-      <c r="B9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>0</v>
-      </c>
-      <c r="B10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2136,8 +2023,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
-        <v>82</v>
+      <c r="A1" s="70" t="s">
+        <v>65</v>
       </c>
       <c r="B1" s="55" t="s">
         <v>57</v>
@@ -2153,45 +2040,45 @@
       <c r="A2" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="58">
+      <c r="B2" s="57">
         <f>Residential!C34</f>
         <v>1.9289972368294446E-2</v>
       </c>
-      <c r="C2" s="58">
+      <c r="C2" s="57">
         <f>B2</f>
         <v>1.9289972368294446E-2</v>
       </c>
-      <c r="D2" s="58">
+      <c r="D2" s="57">
         <f>Commercial!C20</f>
         <v>0.23714188688565077</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B3" s="58">
+        <v>66</v>
+      </c>
+      <c r="B3" s="57">
         <f>Residential!C35</f>
         <v>3.6530988312536733E-2</v>
       </c>
-      <c r="C3" s="58">
-        <f t="shared" ref="C3:C10" si="0">B3</f>
+      <c r="C3" s="57">
+        <f t="shared" ref="C3:C5" si="0">B3</f>
         <v>3.6530988312536733E-2</v>
       </c>
-      <c r="D3" s="58">
-        <f>Commercial!$C$21*outputfrac_nonenergy</f>
-        <v>0.71113495503257274</v>
+      <c r="D3" s="57">
+        <f>Commercial!$C$21</f>
+        <v>0.76285811311434926</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B4" s="58">
+        <v>60</v>
+      </c>
+      <c r="B4" s="57">
         <f>Residential!C36</f>
         <v>0.94417903931916869</v>
       </c>
-      <c r="C4" s="58">
+      <c r="C4" s="57">
         <f t="shared" si="0"/>
         <v>0.94417903931916869</v>
       </c>
@@ -2207,7 +2094,7 @@
       <c r="B5">
         <v>0</v>
       </c>
-      <c r="C5" s="57">
+      <c r="C5" s="56">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2215,87 +2102,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6" s="57">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D6" s="58">
-        <f>Commercial!$C$21*outputfrac_elec</f>
-        <v>1.1817324639815762E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7" s="57">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D7" s="58">
-        <f>Commercial!$C$21*outputfrac_coal</f>
-        <v>1.6681065025235112E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>64</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8" s="57">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D8" s="58">
-        <f>Commercial!$C$21*outputfrac_ngps</f>
-        <v>3.7718097726775229E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9" s="57">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D9" s="58">
-        <f>Commercial!$C$21*outputfrac_bio</f>
-        <v>5.196292126620005E-4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>66</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10" s="57">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D10" s="57">
-        <f>Commercial!$C$21*outputfrac_other</f>
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/InputData/bldgs/FoBObE/Frac of Bldgs Owned by Entity.xlsx
+++ b/InputData/bldgs/FoBObE/Frac of Bldgs Owned by Entity.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27230"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\msteck.TEP-WKS-NT006\ForecastSimulation_Agora_EPS\agoraeps\resources\bldgs\FoBOBE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{A89F3BF9-FD13-45F4-B4C6-F2F419721B91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B6C3149C-76B7-481B-B440-79CA206EF8F3}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A89F3BF9-FD13-45F4-B4C6-F2F419721B91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -71,19 +71,487 @@
     <t>Sources:</t>
   </si>
   <si>
+    <t>EUROSTAT</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Ownership by Cash Flow Entity (dimensionless)</t>
+  </si>
+  <si>
+    <t>Urban Residential</t>
+  </si>
+  <si>
+    <t>Rural Residential</t>
+  </si>
+  <si>
+    <t>Commercial</t>
+  </si>
+  <si>
+    <t>government</t>
+  </si>
+  <si>
+    <t>nonenergy industries</t>
+  </si>
+  <si>
+    <t>labor and consumers</t>
+  </si>
+  <si>
+    <t>foreign entities</t>
+  </si>
+  <si>
+    <t>freq</t>
+  </si>
+  <si>
+    <t>incgrp</t>
+  </si>
+  <si>
+    <t>hhtyp</t>
+  </si>
+  <si>
+    <t>tenure</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>ID_Country</t>
+  </si>
+  <si>
+    <t>Annual</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Owner</t>
+  </si>
+  <si>
+    <t>Percentage</t>
+  </si>
+  <si>
+    <t>Albania</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>Bulgaria</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>Cyprus</t>
+  </si>
+  <si>
+    <t>Czechia</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>Euro area (EA11-1999, EA12-2001, EA13-2007, EA15-2008, EA16-2009, EA17-2011, EA18-2014, EA19-2015, EA20-2023)</t>
+  </si>
+  <si>
+    <t>Euro area - 18 countries (2014)</t>
+  </si>
+  <si>
+    <t>Euro area - 19 countries  (2015-2022)</t>
+  </si>
+  <si>
+    <t>Euro area â€“ 20 countries (from 2023)</t>
+  </si>
+  <si>
+    <t>Estonia</t>
+  </si>
+  <si>
+    <t>Greece</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>European Union (EU6-1958, EU9-1973, EU10-1981, EU12-1986, EU15-1995, EU25-2004, EU27-2007, EU28-2013, EU27-2020)</t>
+  </si>
+  <si>
+    <t>European Union - 27 countries (2007-2013)</t>
+  </si>
+  <si>
+    <t>European Union - 27 countries (from 2020)</t>
+  </si>
+  <si>
+    <t>European Union - 28 countries (2013-2020)</t>
+  </si>
+  <si>
+    <t>Finland</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>Croatia</t>
+  </si>
+  <si>
+    <t>Hungary</t>
+  </si>
+  <si>
+    <t>Ireland</t>
+  </si>
+  <si>
+    <t>Iceland</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>Lithuania</t>
+  </si>
+  <si>
+    <t>Luxembourg</t>
+  </si>
+  <si>
+    <t>Latvia</t>
+  </si>
+  <si>
+    <t>Montenegro</t>
+  </si>
+  <si>
+    <t>North Macedonia</t>
+  </si>
+  <si>
+    <t>Malta</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>Romania</t>
+  </si>
+  <si>
+    <t>Serbia</t>
+  </si>
+  <si>
+    <t>Sweden</t>
+  </si>
+  <si>
+    <t>Slovenia</t>
+  </si>
+  <si>
+    <t>Slovakia</t>
+  </si>
+  <si>
+    <t>TÃ¼rkiye</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>Kosovo (under United Nations Security Council Resolution 1244/99)</t>
+  </si>
+  <si>
+    <t>Tenant</t>
+  </si>
+  <si>
+    <t>Trend</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Full dataset: Distribution of population by tenure status, type of household and income group - EU-SILC survey [ILC_LVHO02] last update: 15/11/2023 23:00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Current dataset: ILC_LVHO02__custom_3553007 </t>
+  </si>
+  <si>
+    <t>https://ec.europa.eu/eurostat/databrowser/view/ilc_lvho02/default/table?lang=en</t>
+  </si>
+  <si>
+    <t>Tenant, rent at reduced price or free</t>
+  </si>
+  <si>
     <t>Distribution of population by tenure status</t>
   </si>
   <si>
-    <t>EUROSTAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Full dataset: Distribution of population by tenure status, type of household and income group - EU-SILC survey [ILC_LVHO02] last update: 15/11/2023 23:00 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Current dataset: ILC_LVHO02__custom_3553007 </t>
-  </si>
-  <si>
-    <t>https://ec.europa.eu/eurostat/databrowser/view/ilc_lvho02/default/table?lang=en</t>
+    <t>all owners are private persons (labor and consumers)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assumptions about Commercial houses </t>
+  </si>
+  <si>
+    <t>Assumptions about Residential homes</t>
+  </si>
+  <si>
+    <t>all house are owned either by the government or by companies</t>
+  </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
+    <t>sex</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>nace_r2</t>
+  </si>
+  <si>
+    <t>geo</t>
+  </si>
+  <si>
+    <t>2008-Q1</t>
+  </si>
+  <si>
+    <t>2008-Q2</t>
+  </si>
+  <si>
+    <t>2008-Q3</t>
+  </si>
+  <si>
+    <t>2008-Q4</t>
+  </si>
+  <si>
+    <t>2009-Q1</t>
+  </si>
+  <si>
+    <t>2009-Q2</t>
+  </si>
+  <si>
+    <t>2009-Q3</t>
+  </si>
+  <si>
+    <t>2009-Q4</t>
+  </si>
+  <si>
+    <t>2010-Q1</t>
+  </si>
+  <si>
+    <t>2010-Q2</t>
+  </si>
+  <si>
+    <t>2010-Q3</t>
+  </si>
+  <si>
+    <t>2010-Q4</t>
+  </si>
+  <si>
+    <t>2011-Q1</t>
+  </si>
+  <si>
+    <t>2011-Q2</t>
+  </si>
+  <si>
+    <t>2011-Q3</t>
+  </si>
+  <si>
+    <t>2011-Q4</t>
+  </si>
+  <si>
+    <t>2012-Q1</t>
+  </si>
+  <si>
+    <t>2012-Q2</t>
+  </si>
+  <si>
+    <t>2012-Q3</t>
+  </si>
+  <si>
+    <t>2012-Q4</t>
+  </si>
+  <si>
+    <t>2013-Q1</t>
+  </si>
+  <si>
+    <t>2013-Q2</t>
+  </si>
+  <si>
+    <t>2013-Q3</t>
+  </si>
+  <si>
+    <t>2013-Q4</t>
+  </si>
+  <si>
+    <t>2014-Q1</t>
+  </si>
+  <si>
+    <t>2014-Q2</t>
+  </si>
+  <si>
+    <t>2014-Q3</t>
+  </si>
+  <si>
+    <t>2014-Q4</t>
+  </si>
+  <si>
+    <t>2015-Q1</t>
+  </si>
+  <si>
+    <t>2015-Q2</t>
+  </si>
+  <si>
+    <t>2015-Q3</t>
+  </si>
+  <si>
+    <t>2015-Q4</t>
+  </si>
+  <si>
+    <t>2016-Q1</t>
+  </si>
+  <si>
+    <t>2016-Q2</t>
+  </si>
+  <si>
+    <t>2016-Q3</t>
+  </si>
+  <si>
+    <t>2016-Q4</t>
+  </si>
+  <si>
+    <t>2017-Q1</t>
+  </si>
+  <si>
+    <t>2017-Q2</t>
+  </si>
+  <si>
+    <t>2017-Q3</t>
+  </si>
+  <si>
+    <t>2017-Q4</t>
+  </si>
+  <si>
+    <t>2018-Q1</t>
+  </si>
+  <si>
+    <t>2018-Q2</t>
+  </si>
+  <si>
+    <t>2018-Q3</t>
+  </si>
+  <si>
+    <t>2018-Q4</t>
+  </si>
+  <si>
+    <t>2019-Q1</t>
+  </si>
+  <si>
+    <t>2019-Q2</t>
+  </si>
+  <si>
+    <t>2019-Q3</t>
+  </si>
+  <si>
+    <t>2019-Q4</t>
+  </si>
+  <si>
+    <t>2020-Q1</t>
+  </si>
+  <si>
+    <t>2020-Q2</t>
+  </si>
+  <si>
+    <t>2020-Q3</t>
+  </si>
+  <si>
+    <t>2020-Q4</t>
+  </si>
+  <si>
+    <t>2021-Q1</t>
+  </si>
+  <si>
+    <t>2021-Q2</t>
+  </si>
+  <si>
+    <t>2021-Q3</t>
+  </si>
+  <si>
+    <t>2021-Q4</t>
+  </si>
+  <si>
+    <t>2022-Q1</t>
+  </si>
+  <si>
+    <t>2022-Q2</t>
+  </si>
+  <si>
+    <t>2022-Q3</t>
+  </si>
+  <si>
+    <t>2022-Q4</t>
+  </si>
+  <si>
+    <t>2023-Q1</t>
+  </si>
+  <si>
+    <t>2023-Q2</t>
+  </si>
+  <si>
+    <t>Quarterly</t>
+  </si>
+  <si>
+    <t>Thousand persons</t>
+  </si>
+  <si>
+    <t>From 15 to 74 years</t>
+  </si>
+  <si>
+    <t>Transportation and storage</t>
+  </si>
+  <si>
+    <t>Accommodation and food service activities</t>
+  </si>
+  <si>
+    <t>Information and communication</t>
+  </si>
+  <si>
+    <t>Financial and insurance activities</t>
+  </si>
+  <si>
+    <t>Real estate activities</t>
+  </si>
+  <si>
+    <t>Professional, scientific and technical activities</t>
+  </si>
+  <si>
+    <t>Administrative and support service activities</t>
+  </si>
+  <si>
+    <t>Public administration and defence; compulsory social security</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Human health and social work activities</t>
+  </si>
+  <si>
+    <t>Arts, entertainment and recreation</t>
+  </si>
+  <si>
+    <t>Other service activities</t>
+  </si>
+  <si>
+    <t>Activities of households as employers; undifferentiated goods- and services-producing activities of households for own use</t>
+  </si>
+  <si>
+    <t>Activities of extraterritorial organisations and bodies</t>
   </si>
   <si>
     <t xml:space="preserve">Employees by sex, age and economic activity (from 2008 onwards, NACE Rev. 2) - 1 000 [lfsq_eegan2] last update: 14/09/2023 23:00 </t>
@@ -92,16 +560,37 @@
     <t>https://ec.europa.eu/eurostat/databrowser/view/lfsq_eegan2/default/table?lang=en</t>
   </si>
   <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>Assumptions about Residential homes</t>
-  </si>
-  <si>
-    <t>all owners are private persons (labor and consumers)</t>
+    <t>Eurostat</t>
+  </si>
+  <si>
+    <t>the share is estimated by the number of employees</t>
+  </si>
+  <si>
+    <t>Share</t>
   </si>
   <si>
     <t>and  all rented dwellings with reduced flat belong to the government,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Question: in existing EU data: residential buildings are 100% owned by consumer, commercial buildings by heat demand share of Eurostat subsectors (and additional data for utilities). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Question: real estate companies are put under industry(companies)? </t>
+  </si>
+  <si>
+    <t>Our approach would then be:</t>
+  </si>
+  <si>
+    <t>Rented -&gt; real estate companies</t>
+  </si>
+  <si>
+    <t>Social housing -&gt; government</t>
+  </si>
+  <si>
+    <t>Rest -&gt; labor and workers</t>
+  </si>
+  <si>
+    <t>This is actually complicated because the fraction of buildings owned by entity is only used to allocate the change in buildings expenditures to the various cash flow entities. Typically, the biggest change in buildings spending is on energy, which is paid by the tenants, not the building owners. I would suggest keeping the residential buildings owned by consumers so that household energy savings are directed back into household spending in the IO model. But this is a good flag for us for separate these components out when we rebuild the buildings sector in a future update.</t>
   </si>
   <si>
     <r>
@@ -129,495 +618,6 @@
       <t xml:space="preserve"> private persons (labor and consumers)</t>
     </r>
   </si>
-  <si>
-    <t xml:space="preserve">Assumptions about Commercial houses </t>
-  </si>
-  <si>
-    <t>all house are owned either by the government or by companies</t>
-  </si>
-  <si>
-    <t>the share is estimated by the number of employees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Question: in existing EU data: residential buildings are 100% owned by consumer, commercial buildings by heat demand share of Eurostat subsectors (and additional data for utilities). </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Question: real estate companies are put under industry(companies)? </t>
-  </si>
-  <si>
-    <t>Our approach would then be:</t>
-  </si>
-  <si>
-    <t>Rented -&gt; real estate companies</t>
-  </si>
-  <si>
-    <t>Social housing -&gt; government</t>
-  </si>
-  <si>
-    <t>Rest -&gt; labor and workers</t>
-  </si>
-  <si>
-    <t>This is actually complicated because the fraction of buildings owned by entity is only used to allocate the change in buildings expenditures to the various cash flow entities. Typically, the biggest change in buildings spending is on energy, which is paid by the tenants, not the building owners. I would suggest keeping the residential buildings owned by consumers so that household energy savings are directed back into household spending in the IO model. But this is a good flag for us for separate these components out when we rebuild the buildings sector in a future update.</t>
-  </si>
-  <si>
-    <t>freq</t>
-  </si>
-  <si>
-    <t>incgrp</t>
-  </si>
-  <si>
-    <t>hhtyp</t>
-  </si>
-  <si>
-    <t>tenure</t>
-  </si>
-  <si>
-    <t>Unit</t>
-  </si>
-  <si>
-    <t>ID_Country</t>
-  </si>
-  <si>
-    <t>Annual</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>Owner</t>
-  </si>
-  <si>
-    <t>Percentage</t>
-  </si>
-  <si>
-    <t>Albania</t>
-  </si>
-  <si>
-    <t>Austria</t>
-  </si>
-  <si>
-    <t>Belgium</t>
-  </si>
-  <si>
-    <t>Bulgaria</t>
-  </si>
-  <si>
-    <t>Switzerland</t>
-  </si>
-  <si>
-    <t>Cyprus</t>
-  </si>
-  <si>
-    <t>Czechia</t>
-  </si>
-  <si>
-    <t>Germany</t>
-  </si>
-  <si>
-    <t>Denmark</t>
-  </si>
-  <si>
-    <t>Euro area (EA11-1999, EA12-2001, EA13-2007, EA15-2008, EA16-2009, EA17-2011, EA18-2014, EA19-2015, EA20-2023)</t>
-  </si>
-  <si>
-    <t>Euro area - 18 countries (2014)</t>
-  </si>
-  <si>
-    <t>Euro area - 19 countries  (2015-2022)</t>
-  </si>
-  <si>
-    <t>Euro area â€“ 20 countries (from 2023)</t>
-  </si>
-  <si>
-    <t>Estonia</t>
-  </si>
-  <si>
-    <t>Greece</t>
-  </si>
-  <si>
-    <t>Spain</t>
-  </si>
-  <si>
-    <t>European Union (EU6-1958, EU9-1973, EU10-1981, EU12-1986, EU15-1995, EU25-2004, EU27-2007, EU28-2013, EU27-2020)</t>
-  </si>
-  <si>
-    <t>European Union - 27 countries (2007-2013)</t>
-  </si>
-  <si>
-    <t>European Union - 27 countries (from 2020)</t>
-  </si>
-  <si>
-    <t>European Union - 28 countries (2013-2020)</t>
-  </si>
-  <si>
-    <t>Finland</t>
-  </si>
-  <si>
-    <t>France</t>
-  </si>
-  <si>
-    <t>Croatia</t>
-  </si>
-  <si>
-    <t>Hungary</t>
-  </si>
-  <si>
-    <t>Ireland</t>
-  </si>
-  <si>
-    <t>Iceland</t>
-  </si>
-  <si>
-    <t>Italy</t>
-  </si>
-  <si>
-    <t>Lithuania</t>
-  </si>
-  <si>
-    <t>Luxembourg</t>
-  </si>
-  <si>
-    <t>Latvia</t>
-  </si>
-  <si>
-    <t>Montenegro</t>
-  </si>
-  <si>
-    <t>North Macedonia</t>
-  </si>
-  <si>
-    <t>Malta</t>
-  </si>
-  <si>
-    <t>Netherlands</t>
-  </si>
-  <si>
-    <t>Norway</t>
-  </si>
-  <si>
-    <t>Poland</t>
-  </si>
-  <si>
-    <t>Portugal</t>
-  </si>
-  <si>
-    <t>Romania</t>
-  </si>
-  <si>
-    <t>Serbia</t>
-  </si>
-  <si>
-    <t>Sweden</t>
-  </si>
-  <si>
-    <t>Slovenia</t>
-  </si>
-  <si>
-    <t>Slovakia</t>
-  </si>
-  <si>
-    <t>TÃ¼rkiye</t>
-  </si>
-  <si>
-    <t>United Kingdom</t>
-  </si>
-  <si>
-    <t>Kosovo (under United Nations Security Council Resolution 1244/99)</t>
-  </si>
-  <si>
-    <t>Tenant</t>
-  </si>
-  <si>
-    <t>Tenant, rent at reduced price or free</t>
-  </si>
-  <si>
-    <t>Trend</t>
-  </si>
-  <si>
-    <t>source</t>
-  </si>
-  <si>
-    <t>unit</t>
-  </si>
-  <si>
-    <t>sex</t>
-  </si>
-  <si>
-    <t>age</t>
-  </si>
-  <si>
-    <t>nace_r2</t>
-  </si>
-  <si>
-    <t>geo</t>
-  </si>
-  <si>
-    <t>2008-Q1</t>
-  </si>
-  <si>
-    <t>2008-Q2</t>
-  </si>
-  <si>
-    <t>2008-Q3</t>
-  </si>
-  <si>
-    <t>2008-Q4</t>
-  </si>
-  <si>
-    <t>2009-Q1</t>
-  </si>
-  <si>
-    <t>2009-Q2</t>
-  </si>
-  <si>
-    <t>2009-Q3</t>
-  </si>
-  <si>
-    <t>2009-Q4</t>
-  </si>
-  <si>
-    <t>2010-Q1</t>
-  </si>
-  <si>
-    <t>2010-Q2</t>
-  </si>
-  <si>
-    <t>2010-Q3</t>
-  </si>
-  <si>
-    <t>2010-Q4</t>
-  </si>
-  <si>
-    <t>2011-Q1</t>
-  </si>
-  <si>
-    <t>2011-Q2</t>
-  </si>
-  <si>
-    <t>2011-Q3</t>
-  </si>
-  <si>
-    <t>2011-Q4</t>
-  </si>
-  <si>
-    <t>2012-Q1</t>
-  </si>
-  <si>
-    <t>2012-Q2</t>
-  </si>
-  <si>
-    <t>2012-Q3</t>
-  </si>
-  <si>
-    <t>2012-Q4</t>
-  </si>
-  <si>
-    <t>2013-Q1</t>
-  </si>
-  <si>
-    <t>2013-Q2</t>
-  </si>
-  <si>
-    <t>2013-Q3</t>
-  </si>
-  <si>
-    <t>2013-Q4</t>
-  </si>
-  <si>
-    <t>2014-Q1</t>
-  </si>
-  <si>
-    <t>2014-Q2</t>
-  </si>
-  <si>
-    <t>2014-Q3</t>
-  </si>
-  <si>
-    <t>2014-Q4</t>
-  </si>
-  <si>
-    <t>2015-Q1</t>
-  </si>
-  <si>
-    <t>2015-Q2</t>
-  </si>
-  <si>
-    <t>2015-Q3</t>
-  </si>
-  <si>
-    <t>2015-Q4</t>
-  </si>
-  <si>
-    <t>2016-Q1</t>
-  </si>
-  <si>
-    <t>2016-Q2</t>
-  </si>
-  <si>
-    <t>2016-Q3</t>
-  </si>
-  <si>
-    <t>2016-Q4</t>
-  </si>
-  <si>
-    <t>2017-Q1</t>
-  </si>
-  <si>
-    <t>2017-Q2</t>
-  </si>
-  <si>
-    <t>2017-Q3</t>
-  </si>
-  <si>
-    <t>2017-Q4</t>
-  </si>
-  <si>
-    <t>2018-Q1</t>
-  </si>
-  <si>
-    <t>2018-Q2</t>
-  </si>
-  <si>
-    <t>2018-Q3</t>
-  </si>
-  <si>
-    <t>2018-Q4</t>
-  </si>
-  <si>
-    <t>2019-Q1</t>
-  </si>
-  <si>
-    <t>2019-Q2</t>
-  </si>
-  <si>
-    <t>2019-Q3</t>
-  </si>
-  <si>
-    <t>2019-Q4</t>
-  </si>
-  <si>
-    <t>2020-Q1</t>
-  </si>
-  <si>
-    <t>2020-Q2</t>
-  </si>
-  <si>
-    <t>2020-Q3</t>
-  </si>
-  <si>
-    <t>2020-Q4</t>
-  </si>
-  <si>
-    <t>2021-Q1</t>
-  </si>
-  <si>
-    <t>2021-Q2</t>
-  </si>
-  <si>
-    <t>2021-Q3</t>
-  </si>
-  <si>
-    <t>2021-Q4</t>
-  </si>
-  <si>
-    <t>2022-Q1</t>
-  </si>
-  <si>
-    <t>2022-Q2</t>
-  </si>
-  <si>
-    <t>2022-Q3</t>
-  </si>
-  <si>
-    <t>2022-Q4</t>
-  </si>
-  <si>
-    <t>2023-Q1</t>
-  </si>
-  <si>
-    <t>2023-Q2</t>
-  </si>
-  <si>
-    <t>Quarterly</t>
-  </si>
-  <si>
-    <t>Thousand persons</t>
-  </si>
-  <si>
-    <t>From 15 to 74 years</t>
-  </si>
-  <si>
-    <t>Transportation and storage</t>
-  </si>
-  <si>
-    <t>Accommodation and food service activities</t>
-  </si>
-  <si>
-    <t>Information and communication</t>
-  </si>
-  <si>
-    <t>Financial and insurance activities</t>
-  </si>
-  <si>
-    <t>Real estate activities</t>
-  </si>
-  <si>
-    <t>Professional, scientific and technical activities</t>
-  </si>
-  <si>
-    <t>Administrative and support service activities</t>
-  </si>
-  <si>
-    <t>Public administration and defence; compulsory social security</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>Human health and social work activities</t>
-  </si>
-  <si>
-    <t>Arts, entertainment and recreation</t>
-  </si>
-  <si>
-    <t>Other service activities</t>
-  </si>
-  <si>
-    <t>Activities of households as employers; undifferentiated goods- and services-producing activities of households for own use</t>
-  </si>
-  <si>
-    <t>Activities of extraterritorial organisations and bodies</t>
-  </si>
-  <si>
-    <t>Share</t>
-  </si>
-  <si>
-    <t>Eurostat</t>
-  </si>
-  <si>
-    <t>Ownership by Cash Flow Entity (dimensionless)</t>
-  </si>
-  <si>
-    <t>Urban Residential</t>
-  </si>
-  <si>
-    <t>Rural Residential</t>
-  </si>
-  <si>
-    <t>Commercial</t>
-  </si>
-  <si>
-    <t>government</t>
-  </si>
-  <si>
-    <t>domestic industries</t>
-  </si>
-  <si>
-    <t>labor and consumers</t>
-  </si>
-  <si>
-    <t>foreign entities</t>
-  </si>
 </sst>
 </file>
 
@@ -628,7 +628,7 @@
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -717,7 +717,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -748,6 +748,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink 2" xfId="2" xr:uid="{241A1FFF-C984-4D9E-B7F6-4E7B815681E9}"/>
@@ -1080,159 +1081,159 @@
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" customWidth="1"/>
-    <col min="2" max="2" width="67.140625" customWidth="1"/>
-    <col min="3" max="3" width="68.5703125" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" customWidth="1"/>
+    <col min="2" max="2" width="67.109375" customWidth="1"/>
+    <col min="3" max="3" width="68.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B5" s="2">
         <v>2023</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B8" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B9" s="9"/>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B10" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B12" s="2">
         <v>2023</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="16" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="16" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" ht="17.45">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A27" s="11"/>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" s="12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="12"/>
       <c r="B34" s="9"/>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="13" t="s">
-        <v>23</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -1253,26 +1254,26 @@
       <selection activeCell="E110" sqref="E110"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:55">
+    <row r="1" spans="1:55" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C1" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D1" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="E1" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F1" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="G1" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="H1">
         <v>2003</v>
@@ -1447,27 +1448,27 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:55" hidden="1">
+    <row r="2" spans="1:55" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="V2">
         <v>96.5</v>
@@ -1485,27 +1486,27 @@
         <v>95.9</v>
       </c>
     </row>
-    <row r="3" spans="1:55" hidden="1">
+    <row r="3" spans="1:55" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="G3" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="L3">
         <v>59.2</v>
@@ -1556,27 +1557,27 @@
         <v>51.4</v>
       </c>
     </row>
-    <row r="4" spans="1:55" hidden="1">
+    <row r="4" spans="1:55" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="G4" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="H4">
         <v>72.7</v>
@@ -1639,27 +1640,27 @@
         <v>72.5</v>
       </c>
     </row>
-    <row r="5" spans="1:55" hidden="1">
+    <row r="5" spans="1:55" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="G5" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="J5">
         <v>85.4</v>
@@ -1716,27 +1717,27 @@
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:55" hidden="1">
+    <row r="6" spans="1:55" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="F6" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="G6" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="O6">
         <v>44.4</v>
@@ -1775,27 +1776,27 @@
         <v>42.2</v>
       </c>
     </row>
-    <row r="7" spans="1:55" hidden="1">
+    <row r="7" spans="1:55" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E7" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="F7" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="G7" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="L7">
         <v>74.099999999999994</v>
@@ -1846,27 +1847,27 @@
         <v>69.599999999999994</v>
       </c>
     </row>
-    <row r="8" spans="1:55" hidden="1">
+    <row r="8" spans="1:55" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E8" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="F8" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="G8" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="J8">
         <v>73.5</v>
@@ -1923,27 +1924,27 @@
         <v>77.099999999999994</v>
       </c>
     </row>
-    <row r="9" spans="1:55" hidden="1">
+    <row r="9" spans="1:55" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E9" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="F9" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="G9" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="J9">
         <v>53.3</v>
@@ -1988,27 +1989,27 @@
         <v>46.7</v>
       </c>
     </row>
-    <row r="10" spans="1:55" hidden="1">
+    <row r="10" spans="1:55" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" t="s">
         <v>30</v>
-      </c>
-      <c r="C10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" t="s">
-        <v>33</v>
-      </c>
-      <c r="G10" t="s">
-        <v>42</v>
       </c>
       <c r="H10">
         <v>66</v>
@@ -2071,27 +2072,27 @@
         <v>59.6</v>
       </c>
     </row>
-    <row r="11" spans="1:55" hidden="1">
+    <row r="11" spans="1:55" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" t="s">
         <v>31</v>
-      </c>
-      <c r="D11" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" t="s">
-        <v>33</v>
-      </c>
-      <c r="G11" t="s">
-        <v>43</v>
       </c>
       <c r="P11">
         <v>66.599999999999994</v>
@@ -2127,27 +2128,27 @@
         <v>65.8</v>
       </c>
     </row>
-    <row r="12" spans="1:55" hidden="1">
+    <row r="12" spans="1:55" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D12" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" t="s">
         <v>32</v>
-      </c>
-      <c r="F12" t="s">
-        <v>33</v>
-      </c>
-      <c r="G12" t="s">
-        <v>44</v>
       </c>
       <c r="J12">
         <v>63.6</v>
@@ -2195,27 +2196,27 @@
         <v>65.8</v>
       </c>
     </row>
-    <row r="13" spans="1:55" hidden="1">
+    <row r="13" spans="1:55" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D13" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E13" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="F13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" t="s">
         <v>33</v>
-      </c>
-      <c r="G13" t="s">
-        <v>45</v>
       </c>
       <c r="J13">
         <v>64</v>
@@ -2266,27 +2267,27 @@
         <v>65.8</v>
       </c>
     </row>
-    <row r="14" spans="1:55" hidden="1">
+    <row r="14" spans="1:55" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D14" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E14" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="F14" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="S14">
         <v>67</v>
@@ -2316,27 +2317,27 @@
         <v>65.2</v>
       </c>
     </row>
-    <row r="15" spans="1:55" hidden="1">
+    <row r="15" spans="1:55" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D15" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E15" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="F15" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="G15" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="K15">
         <v>87.8</v>
@@ -2390,27 +2391,27 @@
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="1:55" hidden="1">
+    <row r="16" spans="1:55" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D16" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E16" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="F16" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="G16" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="H16">
         <v>75.3</v>
@@ -2464,27 +2465,27 @@
         <v>72.8</v>
       </c>
     </row>
-    <row r="17" spans="1:27" hidden="1">
+    <row r="17" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D17" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E17" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="F17" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="G17" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="L17">
         <v>80.599999999999994</v>
@@ -2535,27 +2536,27 @@
         <v>76</v>
       </c>
     </row>
-    <row r="18" spans="1:27" hidden="1">
+    <row r="18" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D18" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E18" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="F18" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="G18" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="P18">
         <v>70.5</v>
@@ -2585,27 +2586,27 @@
         <v>69.2</v>
       </c>
     </row>
-    <row r="19" spans="1:27" hidden="1">
+    <row r="19" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D19" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E19" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="F19" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="G19" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="L19">
         <v>72.8</v>
@@ -2647,27 +2648,27 @@
         <v>69</v>
       </c>
     </row>
-    <row r="20" spans="1:27">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D20" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="F20" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="G20" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="O20">
         <v>70.7</v>
@@ -2709,27 +2710,27 @@
         <v>69.099999999999994</v>
       </c>
     </row>
-    <row r="21" spans="1:27" hidden="1">
+    <row r="21" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C21" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D21" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E21" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="F21" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="G21" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="O21">
         <v>70.599999999999994</v>
@@ -2762,27 +2763,27 @@
         <v>69.2</v>
       </c>
     </row>
-    <row r="22" spans="1:27" hidden="1">
+    <row r="22" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C22" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D22" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E22" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="F22" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="G22" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="I22">
         <v>71.400000000000006</v>
@@ -2842,27 +2843,27 @@
         <v>69.5</v>
       </c>
     </row>
-    <row r="23" spans="1:27" hidden="1">
+    <row r="23" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C23" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D23" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E23" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="F23" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="G23" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="J23">
         <v>61.8</v>
@@ -2919,27 +2920,27 @@
         <v>63.4</v>
       </c>
     </row>
-    <row r="24" spans="1:27" hidden="1">
+    <row r="24" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C24" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D24" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E24" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="F24" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="G24" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="O24">
         <v>88.2</v>
@@ -2981,27 +2982,27 @@
         <v>91.1</v>
       </c>
     </row>
-    <row r="25" spans="1:27" hidden="1">
+    <row r="25" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C25" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D25" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E25" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="F25" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="G25" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J25">
         <v>88.1</v>
@@ -3058,27 +3059,27 @@
         <v>90.1</v>
       </c>
     </row>
-    <row r="26" spans="1:27" hidden="1">
+    <row r="26" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C26" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D26" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E26" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="F26" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="G26" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="H26">
         <v>79.8</v>
@@ -3141,27 +3142,27 @@
         <v>70.400000000000006</v>
       </c>
     </row>
-    <row r="27" spans="1:27" hidden="1">
+    <row r="27" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C27" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D27" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E27" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="F27" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="G27" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="I27">
         <v>85.3</v>
@@ -3209,27 +3210,27 @@
         <v>73.599999999999994</v>
       </c>
     </row>
-    <row r="28" spans="1:27" hidden="1">
+    <row r="28" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C28" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D28" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E28" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="F28" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="G28" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="I28">
         <v>72.7</v>
@@ -3289,27 +3290,27 @@
         <v>74.3</v>
       </c>
     </row>
-    <row r="29" spans="1:27" hidden="1">
+    <row r="29" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C29" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D29" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E29" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="F29" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="G29" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="J29">
         <v>88.3</v>
@@ -3366,27 +3367,27 @@
         <v>88.6</v>
       </c>
     </row>
-    <row r="30" spans="1:27" hidden="1">
+    <row r="30" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C30" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D30" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E30" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="F30" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="G30" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="L30">
         <v>74.5</v>
@@ -3437,27 +3438,27 @@
         <v>72.400000000000006</v>
       </c>
     </row>
-    <row r="31" spans="1:27" hidden="1">
+    <row r="31" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C31" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D31" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E31" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="F31" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="G31" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="L31">
         <v>86</v>
@@ -3508,27 +3509,27 @@
         <v>83.1</v>
       </c>
     </row>
-    <row r="32" spans="1:27" hidden="1">
+    <row r="32" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C32" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D32" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E32" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="F32" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="G32" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="R32">
         <v>88.3</v>
@@ -3558,27 +3559,27 @@
         <v>91.5</v>
       </c>
     </row>
-    <row r="33" spans="1:27" hidden="1">
+    <row r="33" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C33" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D33" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E33" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="F33" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="G33" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="P33">
         <v>90.5</v>
@@ -3611,27 +3612,27 @@
         <v>85.8</v>
       </c>
     </row>
-    <row r="34" spans="1:27" hidden="1">
+    <row r="34" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C34" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D34" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E34" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="F34" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="G34" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="J34">
         <v>79.599999999999994</v>
@@ -3688,27 +3689,27 @@
         <v>82.6</v>
       </c>
     </row>
-    <row r="35" spans="1:27" hidden="1">
+    <row r="35" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C35" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D35" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E35" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="F35" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="G35" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="J35">
         <v>63.9</v>
@@ -3765,27 +3766,27 @@
         <v>70.599999999999994</v>
       </c>
     </row>
-    <row r="36" spans="1:27" hidden="1">
+    <row r="36" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C36" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D36" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E36" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="F36" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="G36" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="H36">
         <v>83.2</v>
@@ -3848,27 +3849,27 @@
         <v>79.400000000000006</v>
       </c>
     </row>
-    <row r="37" spans="1:27" hidden="1">
+    <row r="37" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C37" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D37" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E37" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="F37" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="G37" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="L37">
         <v>62.5</v>
@@ -3919,27 +3920,27 @@
         <v>87.2</v>
       </c>
     </row>
-    <row r="38" spans="1:27" hidden="1">
+    <row r="38" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C38" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D38" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E38" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="F38" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="G38" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="I38">
         <v>74.599999999999994</v>
@@ -3999,27 +4000,27 @@
         <v>77.8</v>
       </c>
     </row>
-    <row r="39" spans="1:27" hidden="1">
+    <row r="39" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C39" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D39" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E39" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="F39" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="G39" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="L39">
         <v>95.5</v>
@@ -4070,27 +4071,27 @@
         <v>94.8</v>
       </c>
     </row>
-    <row r="40" spans="1:27" hidden="1">
+    <row r="40" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C40" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D40" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E40" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="F40" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="G40" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="R40">
         <v>81.099999999999994</v>
@@ -4120,27 +4121,27 @@
         <v>89.4</v>
       </c>
     </row>
-    <row r="41" spans="1:27" hidden="1">
+    <row r="41" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C41" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D41" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E41" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="F41" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="G41" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="I41">
         <v>66.599999999999994</v>
@@ -4200,27 +4201,27 @@
         <v>64.2</v>
       </c>
     </row>
-    <row r="42" spans="1:27" hidden="1">
+    <row r="42" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C42" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D42" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E42" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="F42" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="G42" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="J42">
         <v>83.2</v>
@@ -4277,27 +4278,27 @@
         <v>75.400000000000006</v>
       </c>
     </row>
-    <row r="43" spans="1:27" hidden="1">
+    <row r="43" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C43" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D43" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E43" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="F43" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="G43" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="J43">
         <v>82.1</v>
@@ -4354,27 +4355,27 @@
         <v>93</v>
       </c>
     </row>
-    <row r="44" spans="1:27" hidden="1">
+    <row r="44" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C44" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D44" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E44" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="F44" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="G44" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="K44">
         <v>60.7</v>
@@ -4422,27 +4423,27 @@
         <v>57.5</v>
       </c>
     </row>
-    <row r="45" spans="1:27" hidden="1">
+    <row r="45" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C45" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D45" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E45" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="F45" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="G45" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="J45">
         <v>70</v>
@@ -4487,53 +4488,53 @@
         <v>65.2</v>
       </c>
     </row>
-    <row r="46" spans="1:27" hidden="1">
+    <row r="46" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C46" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D46" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E46" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="F46" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="G46" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="W46">
         <v>97.8</v>
       </c>
     </row>
-    <row r="47" spans="1:27" hidden="1">
+    <row r="47" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C47" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D47" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E47" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="F47" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="G47" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="V47">
         <v>3.5</v>
@@ -4551,27 +4552,27 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="48" spans="1:27" hidden="1">
+    <row r="48" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C48" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D48" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E48" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="F48" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="G48" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="L48">
         <v>40.799999999999997</v>
@@ -4622,27 +4623,27 @@
         <v>48.6</v>
       </c>
     </row>
-    <row r="49" spans="1:27" hidden="1">
+    <row r="49" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C49" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D49" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E49" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="F49" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="G49" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="H49">
         <v>27.3</v>
@@ -4705,27 +4706,27 @@
         <v>27.5</v>
       </c>
     </row>
-    <row r="50" spans="1:27" hidden="1">
+    <row r="50" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C50" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D50" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E50" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="F50" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="G50" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="J50">
         <v>14.6</v>
@@ -4782,27 +4783,27 @@
         <v>15</v>
       </c>
     </row>
-    <row r="51" spans="1:27" hidden="1">
+    <row r="51" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C51" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D51" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E51" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="F51" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="G51" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="O51">
         <v>55.6</v>
@@ -4841,27 +4842,27 @@
         <v>57.8</v>
       </c>
     </row>
-    <row r="52" spans="1:27" hidden="1">
+    <row r="52" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C52" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D52" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E52" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="F52" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="G52" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="L52">
         <v>25.9</v>
@@ -4912,27 +4913,27 @@
         <v>30.4</v>
       </c>
     </row>
-    <row r="53" spans="1:27" hidden="1">
+    <row r="53" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C53" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D53" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E53" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="F53" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="G53" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="J53">
         <v>26.5</v>
@@ -4989,27 +4990,27 @@
         <v>22.9</v>
       </c>
     </row>
-    <row r="54" spans="1:27" hidden="1">
+    <row r="54" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C54" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D54" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E54" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="F54" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="G54" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="J54">
         <v>46.7</v>
@@ -5054,27 +5055,27 @@
         <v>53.3</v>
       </c>
     </row>
-    <row r="55" spans="1:27" hidden="1">
+    <row r="55" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>53</v>
       </c>
       <c r="B55" t="s">
+        <v>18</v>
+      </c>
+      <c r="C55" t="s">
+        <v>19</v>
+      </c>
+      <c r="D55" t="s">
+        <v>19</v>
+      </c>
+      <c r="E55" t="s">
+        <v>67</v>
+      </c>
+      <c r="F55" t="s">
+        <v>21</v>
+      </c>
+      <c r="G55" t="s">
         <v>30</v>
-      </c>
-      <c r="C55" t="s">
-        <v>31</v>
-      </c>
-      <c r="D55" t="s">
-        <v>31</v>
-      </c>
-      <c r="E55" t="s">
-        <v>79</v>
-      </c>
-      <c r="F55" t="s">
-        <v>33</v>
-      </c>
-      <c r="G55" t="s">
-        <v>42</v>
       </c>
       <c r="H55">
         <v>34</v>
@@ -5137,27 +5138,27 @@
         <v>40.4</v>
       </c>
     </row>
-    <row r="56" spans="1:27" hidden="1">
+    <row r="56" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C56" t="s">
+        <v>19</v>
+      </c>
+      <c r="D56" t="s">
+        <v>19</v>
+      </c>
+      <c r="E56" t="s">
+        <v>67</v>
+      </c>
+      <c r="F56" t="s">
+        <v>21</v>
+      </c>
+      <c r="G56" t="s">
         <v>31</v>
-      </c>
-      <c r="D56" t="s">
-        <v>31</v>
-      </c>
-      <c r="E56" t="s">
-        <v>79</v>
-      </c>
-      <c r="F56" t="s">
-        <v>33</v>
-      </c>
-      <c r="G56" t="s">
-        <v>43</v>
       </c>
       <c r="P56">
         <v>33.4</v>
@@ -5193,27 +5194,27 @@
         <v>34.200000000000003</v>
       </c>
     </row>
-    <row r="57" spans="1:27" hidden="1">
+    <row r="57" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C57" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D57" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E57" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="F57" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="G57" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="J57">
         <v>36.4</v>
@@ -5261,27 +5262,27 @@
         <v>34.200000000000003</v>
       </c>
     </row>
-    <row r="58" spans="1:27" hidden="1">
+    <row r="58" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C58" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D58" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E58" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="F58" t="s">
+        <v>21</v>
+      </c>
+      <c r="G58" t="s">
         <v>33</v>
-      </c>
-      <c r="G58" t="s">
-        <v>45</v>
       </c>
       <c r="J58">
         <v>36</v>
@@ -5332,27 +5333,27 @@
         <v>34.200000000000003</v>
       </c>
     </row>
-    <row r="59" spans="1:27" hidden="1">
+    <row r="59" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C59" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D59" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E59" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="F59" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="S59">
         <v>33</v>
@@ -5382,27 +5383,27 @@
         <v>34.799999999999997</v>
       </c>
     </row>
-    <row r="60" spans="1:27" hidden="1">
+    <row r="60" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C60" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D60" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E60" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="F60" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="G60" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="K60">
         <v>12.2</v>
@@ -5456,27 +5457,27 @@
         <v>18</v>
       </c>
     </row>
-    <row r="61" spans="1:27" hidden="1">
+    <row r="61" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C61" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D61" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E61" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="F61" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="G61" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="H61">
         <v>24.7</v>
@@ -5530,27 +5531,27 @@
         <v>27.2</v>
       </c>
     </row>
-    <row r="62" spans="1:27" hidden="1">
+    <row r="62" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C62" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D62" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E62" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="F62" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="G62" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="L62">
         <v>19.399999999999999</v>
@@ -5601,27 +5602,27 @@
         <v>24</v>
       </c>
     </row>
-    <row r="63" spans="1:27" hidden="1">
+    <row r="63" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C63" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D63" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E63" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="F63" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="G63" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="P63">
         <v>29.5</v>
@@ -5651,27 +5652,27 @@
         <v>30.8</v>
       </c>
     </row>
-    <row r="64" spans="1:27" hidden="1">
+    <row r="64" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C64" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D64" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E64" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="F64" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="G64" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="L64">
         <v>27.2</v>
@@ -5713,27 +5714,27 @@
         <v>31</v>
       </c>
     </row>
-    <row r="65" spans="1:27">
+    <row r="65" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C65" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D65" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E65" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="F65" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="G65" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="O65">
         <v>29.3</v>
@@ -5775,27 +5776,27 @@
         <v>30.9</v>
       </c>
     </row>
-    <row r="66" spans="1:27" hidden="1">
+    <row r="66" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C66" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D66" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E66" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="F66" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="G66" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="O66">
         <v>29.4</v>
@@ -5828,27 +5829,27 @@
         <v>30.8</v>
       </c>
     </row>
-    <row r="67" spans="1:27" hidden="1">
+    <row r="67" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C67" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D67" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E67" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="F67" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="G67" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="I67">
         <v>28.6</v>
@@ -5908,27 +5909,27 @@
         <v>30.5</v>
       </c>
     </row>
-    <row r="68" spans="1:27" hidden="1">
+    <row r="68" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C68" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D68" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E68" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="F68" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="G68" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="J68">
         <v>38.200000000000003</v>
@@ -5985,27 +5986,27 @@
         <v>36.6</v>
       </c>
     </row>
-    <row r="69" spans="1:27" hidden="1">
+    <row r="69" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C69" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D69" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E69" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="F69" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="G69" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="O69">
         <v>11.8</v>
@@ -6047,27 +6048,27 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="70" spans="1:27" hidden="1">
+    <row r="70" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C70" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D70" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E70" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="F70" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="G70" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J70">
         <v>11.9</v>
@@ -6124,27 +6125,27 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="71" spans="1:27" hidden="1">
+    <row r="71" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C71" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D71" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E71" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="F71" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="G71" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="H71">
         <v>20.2</v>
@@ -6207,27 +6208,27 @@
         <v>29.6</v>
       </c>
     </row>
-    <row r="72" spans="1:27" hidden="1">
+    <row r="72" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C72" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D72" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E72" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="F72" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="G72" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="I72">
         <v>14.7</v>
@@ -6275,27 +6276,27 @@
         <v>26.4</v>
       </c>
     </row>
-    <row r="73" spans="1:27" hidden="1">
+    <row r="73" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C73" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D73" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E73" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="F73" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="G73" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="I73">
         <v>27.3</v>
@@ -6355,27 +6356,27 @@
         <v>25.7</v>
       </c>
     </row>
-    <row r="74" spans="1:27" hidden="1">
+    <row r="74" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C74" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D74" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E74" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="F74" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="G74" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="J74">
         <v>11.7</v>
@@ -6432,27 +6433,27 @@
         <v>11.4</v>
       </c>
     </row>
-    <row r="75" spans="1:27" hidden="1">
+    <row r="75" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C75" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D75" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E75" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="F75" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="G75" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="L75">
         <v>25.5</v>
@@ -6503,27 +6504,27 @@
         <v>27.6</v>
       </c>
     </row>
-    <row r="76" spans="1:27" hidden="1">
+    <row r="76" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C76" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D76" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E76" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="F76" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="G76" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="L76">
         <v>14</v>
@@ -6574,27 +6575,27 @@
         <v>16.899999999999999</v>
       </c>
     </row>
-    <row r="77" spans="1:27" hidden="1">
+    <row r="77" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C77" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D77" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E77" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="F77" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="G77" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="R77">
         <v>11.7</v>
@@ -6624,27 +6625,27 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="78" spans="1:27" hidden="1">
+    <row r="78" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C78" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D78" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E78" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="F78" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="G78" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="P78">
         <v>9.5</v>
@@ -6677,27 +6678,27 @@
         <v>14.2</v>
       </c>
     </row>
-    <row r="79" spans="1:27" hidden="1">
+    <row r="79" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C79" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D79" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E79" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="F79" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="G79" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="J79">
         <v>20.399999999999999</v>
@@ -6754,27 +6755,27 @@
         <v>17.399999999999999</v>
       </c>
     </row>
-    <row r="80" spans="1:27" hidden="1">
+    <row r="80" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C80" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D80" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E80" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="F80" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="G80" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="J80">
         <v>36.1</v>
@@ -6831,27 +6832,27 @@
         <v>29.4</v>
       </c>
     </row>
-    <row r="81" spans="1:27" hidden="1">
+    <row r="81" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C81" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D81" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E81" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="F81" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="G81" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="H81">
         <v>16.8</v>
@@ -6914,27 +6915,27 @@
         <v>20.6</v>
       </c>
     </row>
-    <row r="82" spans="1:27" hidden="1">
+    <row r="82" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C82" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D82" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E82" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="F82" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="G82" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="L82">
         <v>37.5</v>
@@ -6985,27 +6986,27 @@
         <v>12.8</v>
       </c>
     </row>
-    <row r="83" spans="1:27" hidden="1">
+    <row r="83" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C83" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D83" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E83" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="F83" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="G83" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="I83">
         <v>25.4</v>
@@ -7065,27 +7066,27 @@
         <v>22.2</v>
       </c>
     </row>
-    <row r="84" spans="1:27" hidden="1">
+    <row r="84" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C84" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D84" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E84" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="F84" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="G84" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="L84">
         <v>4.5</v>
@@ -7136,27 +7137,27 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="85" spans="1:27" hidden="1">
+    <row r="85" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C85" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D85" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E85" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="F85" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="G85" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="R85">
         <v>18.899999999999999</v>
@@ -7186,27 +7187,27 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="86" spans="1:27" hidden="1">
+    <row r="86" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C86" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D86" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E86" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="F86" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="G86" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="I86">
         <v>33.4</v>
@@ -7266,27 +7267,27 @@
         <v>35.799999999999997</v>
       </c>
     </row>
-    <row r="87" spans="1:27" hidden="1">
+    <row r="87" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C87" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D87" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E87" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="F87" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="G87" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="J87">
         <v>16.8</v>
@@ -7343,27 +7344,27 @@
         <v>24.6</v>
       </c>
     </row>
-    <row r="88" spans="1:27" hidden="1">
+    <row r="88" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C88" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D88" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E88" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="F88" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="G88" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="J88">
         <v>17.899999999999999</v>
@@ -7420,27 +7421,27 @@
         <v>7</v>
       </c>
     </row>
-    <row r="89" spans="1:27" hidden="1">
+    <row r="89" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C89" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D89" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E89" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="F89" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="G89" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="K89">
         <v>39.299999999999997</v>
@@ -7488,27 +7489,27 @@
         <v>42.5</v>
       </c>
     </row>
-    <row r="90" spans="1:27" hidden="1">
+    <row r="90" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C90" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D90" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E90" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="F90" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="G90" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="J90">
         <v>30</v>
@@ -7553,53 +7554,53 @@
         <v>34.799999999999997</v>
       </c>
     </row>
-    <row r="91" spans="1:27" hidden="1">
+    <row r="91" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C91" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D91" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E91" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="F91" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="G91" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="W91">
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="92" spans="1:27" hidden="1">
+    <row r="92" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C92" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D92" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E92" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F92" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="G92" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="V92">
         <v>1.5</v>
@@ -7617,27 +7618,27 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="93" spans="1:27" hidden="1">
+    <row r="93" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C93" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D93" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E93" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F93" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="G93" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="L93">
         <v>12.1</v>
@@ -7688,27 +7689,27 @@
         <v>17</v>
       </c>
     </row>
-    <row r="94" spans="1:27" hidden="1">
+    <row r="94" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C94" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D94" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E94" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F94" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="G94" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="H94">
         <v>5.2</v>
@@ -7771,27 +7772,27 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="95" spans="1:27" hidden="1">
+    <row r="95" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C95" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D95" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E95" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F95" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="G95" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="J95">
         <v>11.6</v>
@@ -7848,27 +7849,27 @@
         <v>12.6</v>
       </c>
     </row>
-    <row r="96" spans="1:27" hidden="1">
+    <row r="96" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C96" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D96" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E96" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F96" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="G96" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="O96">
         <v>5.8</v>
@@ -7907,27 +7908,27 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="97" spans="1:27" hidden="1">
+    <row r="97" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C97" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D97" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E97" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F97" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="G97" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="L97">
         <v>16</v>
@@ -7978,27 +7979,27 @@
         <v>16.3</v>
       </c>
     </row>
-    <row r="98" spans="1:27" hidden="1">
+    <row r="98" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C98" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D98" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E98" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F98" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="G98" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="J98">
         <v>21.6</v>
@@ -8055,27 +8056,27 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="99" spans="1:27" hidden="1">
+    <row r="99" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C99" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D99" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E99" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F99" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="G99" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="J99">
         <v>9.9</v>
@@ -8120,27 +8121,27 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="100" spans="1:27" hidden="1">
+    <row r="100" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>98</v>
       </c>
       <c r="B100" t="s">
+        <v>18</v>
+      </c>
+      <c r="C100" t="s">
+        <v>19</v>
+      </c>
+      <c r="D100" t="s">
+        <v>19</v>
+      </c>
+      <c r="E100" t="s">
+        <v>73</v>
+      </c>
+      <c r="F100" t="s">
+        <v>21</v>
+      </c>
+      <c r="G100" t="s">
         <v>30</v>
-      </c>
-      <c r="C100" t="s">
-        <v>31</v>
-      </c>
-      <c r="D100" t="s">
-        <v>31</v>
-      </c>
-      <c r="E100" t="s">
-        <v>80</v>
-      </c>
-      <c r="F100" t="s">
-        <v>33</v>
-      </c>
-      <c r="G100" t="s">
-        <v>42</v>
       </c>
       <c r="H100">
         <v>0</v>
@@ -8203,27 +8204,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:27" hidden="1">
+    <row r="101" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C101" t="s">
+        <v>19</v>
+      </c>
+      <c r="D101" t="s">
+        <v>19</v>
+      </c>
+      <c r="E101" t="s">
+        <v>73</v>
+      </c>
+      <c r="F101" t="s">
+        <v>21</v>
+      </c>
+      <c r="G101" t="s">
         <v>31</v>
-      </c>
-      <c r="D101" t="s">
-        <v>31</v>
-      </c>
-      <c r="E101" t="s">
-        <v>80</v>
-      </c>
-      <c r="F101" t="s">
-        <v>33</v>
-      </c>
-      <c r="G101" t="s">
-        <v>43</v>
       </c>
       <c r="P101">
         <v>11.6</v>
@@ -8259,27 +8260,27 @@
         <v>10.9</v>
       </c>
     </row>
-    <row r="102" spans="1:27" hidden="1">
+    <row r="102" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C102" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D102" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E102" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F102" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="G102" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="J102">
         <v>12.6</v>
@@ -8327,27 +8328,27 @@
         <v>10.4</v>
       </c>
     </row>
-    <row r="103" spans="1:27" hidden="1">
+    <row r="103" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C103" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D103" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E103" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F103" t="s">
+        <v>21</v>
+      </c>
+      <c r="G103" t="s">
         <v>33</v>
-      </c>
-      <c r="G103" t="s">
-        <v>45</v>
       </c>
       <c r="J103">
         <v>12.6</v>
@@ -8398,27 +8399,27 @@
         <v>10.9</v>
       </c>
     </row>
-    <row r="104" spans="1:27" hidden="1">
+    <row r="104" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C104" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D104" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E104" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F104" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="G104" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="S104">
         <v>10.6</v>
@@ -8448,27 +8449,27 @@
         <v>11.9</v>
       </c>
     </row>
-    <row r="105" spans="1:27" hidden="1">
+    <row r="105" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C105" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D105" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E105" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F105" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="G105" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="K105">
         <v>8.6</v>
@@ -8522,27 +8523,27 @@
         <v>13</v>
       </c>
     </row>
-    <row r="106" spans="1:27" hidden="1">
+    <row r="106" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C106" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D106" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E106" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F106" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="G106" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="H106">
         <v>6.8</v>
@@ -8596,27 +8597,27 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="107" spans="1:27" hidden="1">
+    <row r="107" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C107" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D107" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E107" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F107" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="G107" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="L107">
         <v>8.6</v>
@@ -8667,27 +8668,27 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="108" spans="1:27" hidden="1">
+    <row r="108" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C108" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D108" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E108" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F108" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="G108" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="P108">
         <v>11.9</v>
@@ -8717,27 +8718,27 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="109" spans="1:27" hidden="1">
+    <row r="109" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C109" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D109" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E109" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F109" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="G109" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="L109">
         <v>14.6</v>
@@ -8779,27 +8780,27 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="110" spans="1:27">
+    <row r="110" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C110" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D110" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E110" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F110" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="G110" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="O110">
         <v>11.1</v>
@@ -8841,27 +8842,27 @@
         <v>10.7</v>
       </c>
     </row>
-    <row r="111" spans="1:27" hidden="1">
+    <row r="111" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C111" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D111" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E111" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F111" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="G111" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="O111">
         <v>12</v>
@@ -8894,27 +8895,27 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="112" spans="1:27" hidden="1">
+    <row r="112" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C112" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D112" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E112" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F112" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="G112" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="I112">
         <v>16.899999999999999</v>
@@ -8974,27 +8975,27 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="113" spans="1:27" hidden="1">
+    <row r="113" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C113" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D113" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E113" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F113" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="G113" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="J113">
         <v>18.2</v>
@@ -9051,27 +9052,27 @@
         <v>20.9</v>
       </c>
     </row>
-    <row r="114" spans="1:27" hidden="1">
+    <row r="114" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C114" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D114" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E114" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F114" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="G114" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="O114">
         <v>8.9</v>
@@ -9113,27 +9114,27 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="115" spans="1:27" hidden="1">
+    <row r="115" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C115" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D115" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E115" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F115" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="G115" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J115">
         <v>8.1999999999999993</v>
@@ -9190,27 +9191,27 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="116" spans="1:27" hidden="1">
+    <row r="116" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C116" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D116" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E116" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F116" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="G116" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="H116">
         <v>17.399999999999999</v>
@@ -9273,27 +9274,27 @@
         <v>18</v>
       </c>
     </row>
-    <row r="117" spans="1:27" hidden="1">
+    <row r="117" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C117" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D117" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E117" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F117" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="G117" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="I117">
         <v>8</v>
@@ -9341,27 +9342,27 @@
         <v>12.3</v>
       </c>
     </row>
-    <row r="118" spans="1:27" hidden="1">
+    <row r="118" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C118" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D118" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E118" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F118" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="G118" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="I118">
         <v>15</v>
@@ -9421,27 +9422,27 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="119" spans="1:27" hidden="1">
+    <row r="119" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C119" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D119" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E119" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F119" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="G119" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="J119">
         <v>10.1</v>
@@ -9498,27 +9499,27 @@
         <v>9.4</v>
       </c>
     </row>
-    <row r="120" spans="1:27" hidden="1">
+    <row r="120" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C120" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D120" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E120" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F120" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="G120" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="L120">
         <v>5.9</v>
@@ -9569,27 +9570,27 @@
         <v>11.4</v>
       </c>
     </row>
-    <row r="121" spans="1:27" hidden="1">
+    <row r="121" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C121" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D121" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E121" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F121" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="G121" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="L121">
         <v>8.9</v>
@@ -9640,27 +9641,27 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="122" spans="1:27" hidden="1">
+    <row r="122" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C122" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D122" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E122" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F122" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="G122" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="R122">
         <v>4.0999999999999996</v>
@@ -9690,27 +9691,27 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="123" spans="1:27" hidden="1">
+    <row r="123" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C123" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D123" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E123" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F123" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="G123" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="P123">
         <v>9</v>
@@ -9743,27 +9744,27 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="124" spans="1:27" hidden="1">
+    <row r="124" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C124" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D124" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E124" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F124" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="G124" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="J124">
         <v>17.7</v>
@@ -9820,27 +9821,27 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="125" spans="1:27" hidden="1">
+    <row r="125" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C125" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D125" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E125" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F125" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="G125" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="J125">
         <v>0.3</v>
@@ -9897,27 +9898,27 @@
         <v>25.4</v>
       </c>
     </row>
-    <row r="126" spans="1:27" hidden="1">
+    <row r="126" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C126" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D126" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E126" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F126" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="G126" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="H126">
         <v>6.9</v>
@@ -9980,27 +9981,27 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="127" spans="1:27" hidden="1">
+    <row r="127" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C127" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D127" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E127" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F127" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="G127" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="L127">
         <v>34.9</v>
@@ -10051,27 +10052,27 @@
         <v>9.4</v>
       </c>
     </row>
-    <row r="128" spans="1:27" hidden="1">
+    <row r="128" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C128" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D128" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E128" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F128" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="G128" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="I128">
         <v>14.6</v>
@@ -10131,27 +10132,27 @@
         <v>10.7</v>
       </c>
     </row>
-    <row r="129" spans="1:55" hidden="1">
+    <row r="129" spans="1:55" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C129" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D129" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E129" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F129" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="G129" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="L129">
         <v>3.4</v>
@@ -10202,27 +10203,27 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="130" spans="1:55" hidden="1">
+    <row r="130" spans="1:55" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C130" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D130" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E130" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F130" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="G130" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="R130">
         <v>15</v>
@@ -10252,27 +10253,27 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="131" spans="1:55" hidden="1">
+    <row r="131" spans="1:55" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C131" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D131" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E131" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F131" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="G131" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="I131">
         <v>0.2</v>
@@ -10332,27 +10333,27 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="132" spans="1:55" hidden="1">
+    <row r="132" spans="1:55" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C132" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D132" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E132" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F132" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="G132" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="J132">
         <v>10.7</v>
@@ -10409,27 +10410,27 @@
         <v>18.7</v>
       </c>
     </row>
-    <row r="133" spans="1:55" hidden="1">
+    <row r="133" spans="1:55" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C133" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D133" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E133" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F133" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="G133" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="J133">
         <v>5.4</v>
@@ -10486,27 +10487,27 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="134" spans="1:55" hidden="1">
+    <row r="134" spans="1:55" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C134" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D134" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E134" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F134" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="G134" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="K134">
         <v>15.5</v>
@@ -10554,27 +10555,27 @@
         <v>15.7</v>
       </c>
     </row>
-    <row r="135" spans="1:55" hidden="1">
+    <row r="135" spans="1:55" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C135" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D135" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E135" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F135" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="G135" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="J135">
         <v>14.1</v>
@@ -10619,41 +10620,41 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="136" spans="1:55" hidden="1">
+    <row r="136" spans="1:55" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C136" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D136" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E136" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F136" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="G136" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="W136">
         <v>1.7</v>
       </c>
     </row>
-    <row r="137" spans="1:55">
+    <row r="137" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="E137" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="G137" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="O137" s="6">
         <f xml:space="preserve"> -0.1242*(O1-2009) + 71.092</f>
@@ -10820,32 +10821,32 @@
         <v>65.999799999999993</v>
       </c>
     </row>
-    <row r="138" spans="1:55" hidden="1">
+    <row r="138" spans="1:55" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="139" spans="1:55" hidden="1">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="139" spans="1:55" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="140" spans="1:55" hidden="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="140" spans="1:55" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="141" spans="1:55" hidden="1">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="141" spans="1:55" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="142" spans="1:55">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="142" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="E142" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="O142" s="6">
         <f>O110</f>
@@ -11035,235 +11036,235 @@
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:69">
+    <row r="1" spans="1:69" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1" t="s">
         <v>83</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" t="s">
         <v>84</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I1" t="s">
         <v>85</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J1" t="s">
         <v>86</v>
       </c>
-      <c r="G1" t="s">
+      <c r="K1" t="s">
         <v>87</v>
       </c>
-      <c r="H1" t="s">
+      <c r="L1" t="s">
         <v>88</v>
       </c>
-      <c r="I1" t="s">
+      <c r="M1" t="s">
         <v>89</v>
       </c>
-      <c r="J1" t="s">
+      <c r="N1" t="s">
         <v>90</v>
       </c>
-      <c r="K1" t="s">
+      <c r="O1" t="s">
         <v>91</v>
       </c>
-      <c r="L1" t="s">
+      <c r="P1" t="s">
         <v>92</v>
       </c>
-      <c r="M1" t="s">
+      <c r="Q1" t="s">
         <v>93</v>
       </c>
-      <c r="N1" t="s">
+      <c r="R1" t="s">
         <v>94</v>
       </c>
-      <c r="O1" t="s">
+      <c r="S1" t="s">
         <v>95</v>
       </c>
-      <c r="P1" t="s">
+      <c r="T1" t="s">
         <v>96</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="U1" t="s">
         <v>97</v>
       </c>
-      <c r="R1" t="s">
+      <c r="V1" t="s">
         <v>98</v>
       </c>
-      <c r="S1" t="s">
+      <c r="W1" t="s">
         <v>99</v>
       </c>
-      <c r="T1" t="s">
+      <c r="X1" t="s">
         <v>100</v>
       </c>
-      <c r="U1" t="s">
+      <c r="Y1" t="s">
         <v>101</v>
       </c>
-      <c r="V1" t="s">
+      <c r="Z1" t="s">
         <v>102</v>
       </c>
-      <c r="W1" t="s">
+      <c r="AA1" t="s">
         <v>103</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AB1" t="s">
         <v>104</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AC1" t="s">
         <v>105</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AD1" t="s">
         <v>106</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AE1" t="s">
         <v>107</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AF1" t="s">
         <v>108</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AG1" t="s">
         <v>109</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AH1" t="s">
         <v>110</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AI1" t="s">
         <v>111</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AJ1" t="s">
         <v>112</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AK1" t="s">
         <v>113</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AL1" t="s">
         <v>114</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AM1" t="s">
         <v>115</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AN1" t="s">
         <v>116</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AO1" t="s">
         <v>117</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AP1" t="s">
         <v>118</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AQ1" t="s">
         <v>119</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AR1" t="s">
         <v>120</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AS1" t="s">
         <v>121</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AT1" t="s">
         <v>122</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AU1" t="s">
         <v>123</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AV1" t="s">
         <v>124</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AW1" t="s">
         <v>125</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AX1" t="s">
         <v>126</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AY1" t="s">
         <v>127</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AZ1" t="s">
         <v>128</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="BA1" t="s">
         <v>129</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="BB1" t="s">
         <v>130</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="BC1" t="s">
         <v>131</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BD1" t="s">
         <v>132</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BE1" t="s">
         <v>133</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BF1" t="s">
         <v>134</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BG1" t="s">
         <v>135</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BH1" t="s">
         <v>136</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BI1" t="s">
         <v>137</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BJ1" t="s">
         <v>138</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BK1" t="s">
         <v>139</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BL1" t="s">
         <v>140</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BM1" t="s">
         <v>141</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BN1" t="s">
         <v>142</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BO1" t="s">
         <v>143</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BP1" t="s">
         <v>144</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BQ1" t="s">
         <v>145</v>
       </c>
-      <c r="BN1" t="s">
-        <v>146</v>
-      </c>
-      <c r="BO1" t="s">
-        <v>147</v>
-      </c>
-      <c r="BP1" t="s">
-        <v>148</v>
-      </c>
-      <c r="BQ1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="2" spans="1:69">
+    </row>
+    <row r="2" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C2" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="F2" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="G2" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="H2">
         <v>8731.7999999999993</v>
@@ -11452,27 +11453,27 @@
         <v>9926.4</v>
       </c>
     </row>
-    <row r="3" spans="1:69">
+    <row r="3" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>148</v>
+      </c>
+      <c r="F3" t="s">
         <v>150</v>
       </c>
-      <c r="C3" t="s">
-        <v>151</v>
-      </c>
-      <c r="D3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" t="s">
-        <v>152</v>
-      </c>
-      <c r="F3" t="s">
-        <v>154</v>
-      </c>
       <c r="G3" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="H3">
         <v>6009.4</v>
@@ -11661,27 +11662,27 @@
         <v>8093.4</v>
       </c>
     </row>
-    <row r="4" spans="1:69">
+    <row r="4" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>148</v>
+      </c>
+      <c r="F4" t="s">
         <v>151</v>
       </c>
-      <c r="D4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" t="s">
-        <v>152</v>
-      </c>
-      <c r="F4" t="s">
-        <v>155</v>
-      </c>
       <c r="G4" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="H4">
         <v>4352.3</v>
@@ -11870,27 +11871,27 @@
         <v>6705.7</v>
       </c>
     </row>
-    <row r="5" spans="1:69">
+    <row r="5" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C5" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F5" t="s">
         <v>152</v>
       </c>
-      <c r="F5" t="s">
-        <v>156</v>
-      </c>
       <c r="G5" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="H5">
         <v>4788.8</v>
@@ -12079,27 +12080,27 @@
         <v>4960.6000000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:69">
+    <row r="6" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C6" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E6" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="F6" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="G6" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="H6">
         <v>1080.5</v>
@@ -12288,27 +12289,27 @@
         <v>1318.4</v>
       </c>
     </row>
-    <row r="7" spans="1:69">
+    <row r="7" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="F7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="G7" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="H7">
         <v>5893.3</v>
@@ -12497,27 +12498,27 @@
         <v>8454.6</v>
       </c>
     </row>
-    <row r="8" spans="1:69">
+    <row r="8" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C8" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E8" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="F8" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="G8" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="H8">
         <v>5980</v>
@@ -12706,27 +12707,27 @@
         <v>7488.9</v>
       </c>
     </row>
-    <row r="9" spans="1:69">
+    <row r="9" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C9" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E9" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="F9" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G9" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="H9">
         <v>13375.3</v>
@@ -12915,27 +12916,27 @@
         <v>14346</v>
       </c>
     </row>
-    <row r="10" spans="1:69">
+    <row r="10" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C10" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D10" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E10" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="F10" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G10" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="H10">
         <v>12345.6</v>
@@ -13124,27 +13125,27 @@
         <v>14648.7</v>
       </c>
     </row>
-    <row r="11" spans="1:69">
+    <row r="11" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C11" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E11" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="F11" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G11" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="H11">
         <v>15832.5</v>
@@ -13333,27 +13334,27 @@
         <v>20733.7</v>
       </c>
     </row>
-    <row r="12" spans="1:69">
+    <row r="12" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C12" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D12" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E12" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="F12" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G12" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="H12">
         <v>2017.3</v>
@@ -13542,27 +13543,27 @@
         <v>2634.6</v>
       </c>
     </row>
-    <row r="13" spans="1:69">
+    <row r="13" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C13" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D13" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E13" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="F13" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="G13" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="H13">
         <v>3311.8</v>
@@ -13751,27 +13752,27 @@
         <v>3390.3</v>
       </c>
     </row>
-    <row r="14" spans="1:69">
+    <row r="14" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C14" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D14" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E14" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="F14" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G14" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="H14">
         <v>2234.5</v>
@@ -13960,27 +13961,27 @@
         <v>1798.1</v>
       </c>
     </row>
-    <row r="15" spans="1:69">
+    <row r="15" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C15" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D15" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E15" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="F15" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="G15" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="H15">
         <v>164.6</v>
@@ -14169,7 +14170,7 @@
         <v>156.19999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:69">
+    <row r="17" spans="1:69" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>167</v>
       </c>
@@ -14426,22 +14427,22 @@
         <v>0.13707818788483367</v>
       </c>
     </row>
-    <row r="18" spans="1:69">
+    <row r="18" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:69">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="19" spans="1:69" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:69">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="20" spans="1:69" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -14457,34 +14458,34 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.28515625" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" customWidth="1"/>
+    <col min="1" max="1" width="35.33203125" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.9">
+    <row r="1" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>169</v>
+        <v>4</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>170</v>
+        <v>5</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>171</v>
+        <v>6</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>173</v>
+        <v>8</v>
       </c>
       <c r="B2" s="8">
         <v>0</v>
@@ -14497,9 +14498,9 @@
         <v>0.13707818788483367</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>174</v>
+        <v>9</v>
       </c>
       <c r="B3" s="8">
         <v>0</v>
@@ -14512,9 +14513,9 @@
         <v>0.86292181211516628</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>175</v>
+        <v>10</v>
       </c>
       <c r="B4" s="8">
         <v>1</v>
@@ -14526,9 +14527,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>176</v>
+        <v>11</v>
       </c>
       <c r="B5" s="8">
         <v>0</v>
@@ -14540,27 +14541,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
@@ -14571,8 +14572,28 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A08BDF573E2FFD46A5F05DED9AF68025" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f85c0eb68479ad8b8987805fd5b8836b">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="00484652-42e1-479e-92f4-fb0efddcdf60" xmlns:ns3="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f7dbc72841229da9eaa30ebb1456cd70" ns2:_="" ns3:_="">
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="00484652-42e1-479e-92f4-fb0efddcdf60">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100A08BDF573E2FFD46A5F05DED9AF68025" ma:contentTypeVersion="14" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="4a12692b057bc30d68596ac87c75a308">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="00484652-42e1-479e-92f4-fb0efddcdf60" xmlns:ns3="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4dd464ebbb7361a2027b4bc4be8d527a" ns2:_="" ns3:_="">
     <xsd:import namespace="00484652-42e1-479e-92f4-fb0efddcdf60"/>
     <xsd:import namespace="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3"/>
     <xsd:element name="properties">
@@ -14593,6 +14614,7 @@
                 <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
                 <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
                 <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -14618,7 +14640,7 @@
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="12" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="eca5b831-c3dc-41cf-bd85-218b82cecb21" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="12" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Bildmarkierungen" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="eca5b831-c3dc-41cf-bd85-218b82cecb21" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
       <xsd:complexType>
         <xsd:sequence>
           <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
@@ -14652,6 +14674,11 @@
         </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="21" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -14667,7 +14694,7 @@
         </xsd:complexContent>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="SharedWithUsers" ma:index="19" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+    <xsd:element name="SharedWithUsers" ma:index="19" nillable="true" ma:displayName="Freigegeben für" ma:internalName="SharedWithUsers" ma:readOnly="true">
       <xsd:complexType>
         <xsd:complexContent>
           <xsd:extension base="dms:UserMulti">
@@ -14686,7 +14713,7 @@
         </xsd:complexContent>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="20" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+    <xsd:element name="SharedWithDetails" ma:index="20" nillable="true" ma:displayName="Freigegeben für - Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
@@ -14703,8 +14730,8 @@
         <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Inhaltstyp"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titel"/>
         <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
         <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
@@ -14793,34 +14820,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="00484652-42e1-479e-92f4-fb0efddcdf60">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5B498D36-A54F-47EE-8AF6-485249FEDA04}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A35187D7-6603-4794-84E3-69B805905752}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="00484652-42e1-479e-92f4-fb0efddcdf60"/>
+    <ds:schemaRef ds:uri="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{928B95E8-8122-4FE5-98A0-9549F3830258}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{928B95E8-8122-4FE5-98A0-9549F3830258}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A35187D7-6603-4794-84E3-69B805905752}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC8210C8-5C87-4A61-9699-AABBF39AD399}"/>
 </file>